--- a/main.xlsx
+++ b/main.xlsx
@@ -89,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -118,12 +118,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,16 +169,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -207,11 +197,11 @@
   </sheetPr>
   <dimension ref="A1:T566"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T1" activeCellId="0" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.85"/>
@@ -232,10 +222,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="28.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="23.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="31.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -293,7 +282,7 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
     </row>
